--- a/output.xlsx
+++ b/output.xlsx
@@ -133,7 +133,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="952500" cy="952500"/>
+    <ext cx="1752600" cy="1285875"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -158,7 +158,7 @@
       <row>2</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="952500" cy="952500"/>
+    <ext cx="1809750" cy="1762125"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -183,7 +183,7 @@
       <row>3</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="952500" cy="952500"/>
+    <ext cx="1590675" cy="1543050"/>
     <pic>
       <nvPicPr>
         <cNvPr id="3" name="Image 3" descr="Picture"/>
@@ -500,6 +500,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="27.14" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -523,7 +526,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="101" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
           <t>CMP001</t>
@@ -540,7 +543,7 @@
         </is>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="138" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
           <t>CMP002</t>
@@ -557,7 +560,7 @@
         </is>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="121" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
           <t>CMP003</t>
